--- a/medicine/Pharmacie/Fresenius_Medical_Care_Canada/Fresenius_Medical_Care_Canada.xlsx
+++ b/medicine/Pharmacie/Fresenius_Medical_Care_Canada/Fresenius_Medical_Care_Canada.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fresenius Medical Care Canada est la filiale canadienne de Fresenius Medical Care, un des trois éléments de la société allemande Fresenius AG, les deux autres étant Fresenius Kabi et Fresenius ProServe. En 2005, elle a racheté son concurrent Haemotec.
@@ -512,7 +524,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Site web
  Portail des entreprises   Portail du Canada   Portail de la pharmacie                   </t>
